--- a/xlsx/公债_intext.xlsx
+++ b/xlsx/公债_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>公债</t>
   </si>
@@ -29,7 +29,7 @@
     <t>公共财政</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_公债</t>
+    <t>政策_政策_货币政策_公债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>金融市場</t>
+    <t>金融市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>股票市場</t>
+    <t>股票市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E6%97%A5%E6%B2%96%E9%8A%B7</t>
   </si>
   <si>
-    <t>當日沖銷</t>
+    <t>当日冲销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%85%88%E8%82%A1</t>
   </si>
   <si>
-    <t>優先股</t>
+    <t>优先股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%82%A1</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>外匯市場</t>
+    <t>外汇市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E7%86%8A%E8%AD%89</t>
   </si>
   <si>
-    <t>牛熊證</t>
+    <t>牛熊证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E8%A1%8D%E7%94%9F%E5%B7%A5%E5%85%B7</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9C%9F%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>遠期契約</t>
+    <t>远期契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%89%E6%9C%9F%E4%BA%A4%E6%98%93</t>
@@ -299,19 +299,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>股票市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%94%A2%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>地產市場</t>
+    <t>地产市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F%E6%BC%AB%E6%AD%A5%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>隨機漫步假說</t>
+    <t>随机漫步假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -323,13 +320,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>金融市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E9%87%91%E8%9E%8D%E5%AD%B8</t>
   </si>
   <si>
-    <t>公司金融學</t>
+    <t>公司金融学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%90%86%E8%B4%A2</t>
@@ -341,13 +335,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C</t>
@@ -365,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5</t>
   </si>
   <si>
-    <t>債</t>
+    <t>债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%80%BA%E5%88%B8</t>
@@ -401,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>台灣財政部</t>
+    <t>台湾财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%82%B5%E9%90%98</t>
   </si>
   <si>
-    <t>國債鐘</t>
+    <t>国债钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E9%99%A2</t>
   </si>
   <si>
-    <t>監察院</t>
+    <t>监察院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E7%9C%81</t>
   </si>
   <si>
-    <t>財務省</t>
+    <t>财务省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E7%A4%BE</t>
@@ -437,19 +428,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%BA%9C</t>
   </si>
   <si>
-    <t>內閣府</t>
+    <t>内阁府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B6%E5%80%BC</t>
   </si>
   <si>
-    <t>貶值</t>
+    <t>贬值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -461,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>安倍經濟學</t>
+    <t>安倍经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%BA%93%E5%88%B8</t>
@@ -485,9 +476,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -515,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%AD%A6%E8%A3%9D%E5%B9%B2%E6%B6%89%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
-    <t>法國武裝干涉墨西哥</t>
+    <t>法国武装干涉墨西哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>意大利王國</t>
+    <t>意大利王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
@@ -545,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B2%9D%E7%95%A5%E6%B8%AF</t>
   </si>
   <si>
-    <t>卡貝略港</t>
+    <t>卡贝略港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -587,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
@@ -611,19 +599,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>負資產</t>
+    <t>负资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E6%A8%93</t>
   </si>
   <si>
-    <t>炒樓</t>
+    <t>炒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC%E7%A8%8E</t>
@@ -635,25 +623,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>利得稅</t>
+    <t>利得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -665,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2358,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2396,10 +2384,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2425,10 +2413,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2454,10 +2442,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -2483,10 +2471,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2512,10 +2500,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2541,10 +2529,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2570,10 +2558,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2599,10 +2587,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2628,10 +2616,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>7</v>
@@ -2657,10 +2645,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -2686,10 +2674,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>70</v>
@@ -2715,10 +2703,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>14</v>
@@ -2744,10 +2732,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
@@ -2773,10 +2761,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -2802,10 +2790,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2831,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2860,10 +2848,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2889,10 +2877,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2918,10 +2906,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2947,10 +2935,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>18</v>
@@ -2976,10 +2964,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3005,10 +2993,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3034,10 +3022,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3063,10 +3051,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3092,10 +3080,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3121,10 +3109,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3150,10 +3138,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3179,10 +3167,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3208,10 +3196,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3237,10 +3225,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -3266,10 +3254,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3295,10 +3283,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3324,10 +3312,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3353,10 +3341,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3382,10 +3370,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3411,10 +3399,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3440,10 +3428,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3469,10 +3457,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3498,10 +3486,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3527,10 +3515,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3556,10 +3544,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3585,10 +3573,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3614,10 +3602,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3643,10 +3631,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3672,10 +3660,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3701,10 +3689,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3730,10 +3718,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>13</v>
@@ -3759,10 +3747,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3788,10 +3776,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3817,10 +3805,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3846,10 +3834,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3875,10 +3863,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3904,10 +3892,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3933,10 +3921,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3962,10 +3950,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -3991,10 +3979,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4020,10 +4008,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4049,10 +4037,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4078,10 +4066,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4107,10 +4095,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4136,10 +4124,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4165,10 +4153,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F109" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4194,10 +4182,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4223,10 +4211,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -4252,10 +4240,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4281,10 +4269,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
